--- a/library/export_iar.xlsx
+++ b/library/export_iar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +433,7 @@
         <xdr:cNvPr id="2" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACCDC65-717B-4E89-A610-BCD31A13C0C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACCDC65-717B-4E89-A610-BCD31A13C0C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,7 +487,7 @@
         <xdr:cNvPr id="3" name="Line 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D15E65-2237-41D3-AE66-5766BE8CBEC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D15E65-2237-41D3-AE66-5766BE8CBEC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -536,7 +541,7 @@
         <xdr:cNvPr id="4" name="Line 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B09CED3-BFF3-41B3-B8E0-6F322C8746C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B09CED3-BFF3-41B3-B8E0-6F322C8746C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +595,7 @@
         <xdr:cNvPr id="5" name="Line 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FCAC94-F815-4BC5-86DF-75B8188E2FB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FCAC94-F815-4BC5-86DF-75B8188E2FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -716,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,17 +967,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="0.140625" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
